--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB308.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB308.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,23 @@
           <t>Angle between normals (degrees)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Coord: normal vector scan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2992169788991932</v>
+        <v>0.2992193909499149</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.         0.32002289 0.94740981]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -458,7 +468,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.15454444681504</v>
+        <v>1.154542479549355</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-0.44071658  0.52582622  0.72751336]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -466,7 +481,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2417708929075488</v>
+        <v>0.2417729669738042</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-0.00421424  0.01625641  0.99985897]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -474,7 +494,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.56421141496435</v>
+        <v>0.5642115139385254</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-6.33044593e-04  2.85055526e-01 -9.58510796e-01]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -482,7 +507,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.634354514993569</v>
+        <v>1.634349092659157</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[0.72484588 0.28839264 0.62564218]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -490,7 +520,12 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2590744404914784</v>
+        <v>0.2590600675317279</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.7390617  -0.27315406  0.6157716 ]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -498,7 +533,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.581303892897805</v>
+        <v>0.5813071460277248</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[0.         0.31535459 0.94897391]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -506,7 +546,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9783069368442925</v>
+        <v>0.9783082765882792</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.30877167  0.95113619]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -514,7 +559,12 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.814742389447196</v>
+        <v>1.8147533940247</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-0.72754179  0.25842599  0.63553045]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -522,7 +572,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.636596405732319</v>
+        <v>1.63659575012755</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[ 0.72923746 -0.27975851  0.62445809]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -530,7 +585,12 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5823095136145328</v>
+        <v>0.5823097362680166</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[ 6.40813527e-04 -2.84752602e-01 -9.58600827e-01]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -538,7 +598,12 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.530898787073743</v>
+        <v>1.530902043419413</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[-0.72573589 -0.28922681  0.62422373]</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -546,7 +611,12 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.88818040812142</v>
+        <v>2.888176878425738</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[0.71129802 0.26422727 0.65133637]</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -554,7 +624,12 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.359091215988267</v>
+        <v>1.359093703802407</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.30244368  0.95316726]</t>
+        </is>
       </c>
     </row>
   </sheetData>
